--- a/biology/Zoologie/Darevskia_brauneri/Darevskia_brauneri.xlsx
+++ b/biology/Zoologie/Darevskia_brauneri/Darevskia_brauneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia brauneri est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia brauneri est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Géorgie et en Russie en Karatchaïévo-Tcherkessie, en Adyguée et dans les kraïs de Krasnodar et de Stavropol[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Géorgie et en Russie en Karatchaïévo-Tcherkessie, en Adyguée et dans les kraïs de Krasnodar et de Stavropol.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 mai 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 mai 2014) :
 Darevskia brauneri brauneri (Mehelÿ, 1909)
 Darevskia brauneri myusserica Doronin, 2011
 Darevskia brauneri szczerbaki (Lukina, 1963)</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Doronin, 2011 : A description of a new subspecies of Rock Lizard Darevskia brauneri myusserica ssp. nov. from the Western Transcaucasia (Abkhazia), with comments on systematics of Darevskia saxicola complex. Proceedings of the Zoological Institute, vol. 315, no 3, p. 242-262 (texte intégral).
 Lukina, 1963 : Position systématique et biologie du lézard des rochers Lacerta saxicola Eversmann à la frontière Nord-Ouest de son aire de répartition dans le Caucase. Actes de l'Académie des Sciences de la RSS d'Azerbaïdjan, série Sciences biologiques et médicales, vol. 6, p. 53-61.
